--- a/CGL Retailer Details 2.xlsx
+++ b/CGL Retailer Details 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechWave\HR Chatbot\Chatbot_HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201307\Documents\Chatbot_HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916DBEC8-A2A6-4713-B30F-994AB4F29472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B68CE3-B656-4F8E-85E4-D49689F1DE03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F79E525A-48BB-4130-9810-4A9F66D41FDF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$O$361</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$O$364</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="52">
   <si>
     <t>PO</t>
   </si>
@@ -174,6 +174,24 @@
   </si>
   <si>
     <t>Nilesh</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Vittal</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Shiva</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raj </t>
   </si>
 </sst>
 </file>
@@ -531,11 +549,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E1B2D3-CE6C-46DC-8AE9-A5EE63CDE89C}">
-  <dimension ref="A1:O361"/>
+  <dimension ref="A1:O364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K361"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17520,20 +17536,77 @@
         <v>42</v>
       </c>
     </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C362" t="s">
+        <v>51</v>
+      </c>
+      <c r="D362">
+        <v>444444</v>
+      </c>
+      <c r="E362">
+        <v>999999999</v>
+      </c>
+      <c r="N362" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C363" t="s">
+        <v>49</v>
+      </c>
+      <c r="D363">
+        <v>555555</v>
+      </c>
+      <c r="E363">
+        <v>888888888</v>
+      </c>
+      <c r="N363" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C364" t="s">
+        <v>47</v>
+      </c>
+      <c r="D364">
+        <v>666666</v>
+      </c>
+      <c r="E364">
+        <v>777777777</v>
+      </c>
+      <c r="N364" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O361" xr:uid="{4C6520EC-54EC-4A57-9A7D-F06FBCCD2C6D}"/>
+  <autoFilter ref="A1:O364" xr:uid="{C1826FC8-D983-49E3-9309-9A7518C692A0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17651,15 +17724,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37994435-2A3E-43A8-870D-793DD8A6382F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBD8E120-5285-40A4-8B0C-33046C86846D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17681,16 +17764,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBD8E120-5285-40A4-8B0C-33046C86846D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37994435-2A3E-43A8-870D-793DD8A6382F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>